--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,7 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Pspn</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H2">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I2">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J2">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.594806333333333</v>
+        <v>1.139366</v>
       </c>
       <c r="N2">
-        <v>4.784419</v>
+        <v>3.418098</v>
       </c>
       <c r="O2">
-        <v>0.1541349506635775</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="P2">
-        <v>0.1541349506635776</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="Q2">
-        <v>0.08620194032722221</v>
+        <v>0.5486495440626667</v>
       </c>
       <c r="R2">
-        <v>0.775817462945</v>
+        <v>4.937845896564</v>
       </c>
       <c r="S2">
-        <v>0.01009309081442624</v>
+        <v>0.05595001404085988</v>
       </c>
       <c r="T2">
-        <v>0.01009309081442624</v>
+        <v>0.05595001404085988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H3">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I3">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J3">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>16.965439</v>
       </c>
       <c r="O3">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="P3">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="Q3">
-        <v>0.3056700845605556</v>
+        <v>2.723175395255778</v>
       </c>
       <c r="R3">
-        <v>2.751030761045</v>
+        <v>24.508578557302</v>
       </c>
       <c r="S3">
-        <v>0.03578986634189201</v>
+        <v>0.2777031408284232</v>
       </c>
       <c r="T3">
-        <v>0.03578986634189201</v>
+        <v>0.2777031408284232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H4">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I4">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J4">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.080867333333333</v>
+        <v>0.4872916666666667</v>
       </c>
       <c r="N4">
-        <v>9.242602</v>
+        <v>1.461875</v>
       </c>
       <c r="O4">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="P4">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="Q4">
-        <v>0.1665260141455555</v>
+        <v>0.2346501043055556</v>
       </c>
       <c r="R4">
-        <v>1.49873412731</v>
+        <v>2.11185093875</v>
       </c>
       <c r="S4">
-        <v>0.0194979623121632</v>
+        <v>0.0239290759878687</v>
       </c>
       <c r="T4">
-        <v>0.0194979623121632</v>
+        <v>0.0239290759878687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H5">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I5">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J5">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01599833333333333</v>
+        <v>0.08456133333333334</v>
       </c>
       <c r="N5">
-        <v>0.047995</v>
+        <v>0.253684</v>
       </c>
       <c r="O5">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="P5">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="Q5">
-        <v>0.0008647365805555555</v>
+        <v>0.04071960807911111</v>
       </c>
       <c r="R5">
-        <v>0.007782629224999999</v>
+        <v>0.366476472712</v>
       </c>
       <c r="S5">
-        <v>0.0001012490531532433</v>
+        <v>0.004152491637729959</v>
       </c>
       <c r="T5">
-        <v>0.0001012490531532433</v>
+        <v>0.00415249163772996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4997963333333333</v>
+        <v>0.259826</v>
       </c>
       <c r="H6">
-        <v>1.499389</v>
+        <v>0.779478</v>
       </c>
       <c r="I6">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J6">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.594806333333333</v>
+        <v>1.139366</v>
       </c>
       <c r="N6">
-        <v>4.784419</v>
+        <v>3.418098</v>
       </c>
       <c r="O6">
-        <v>0.1541349506635775</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="P6">
-        <v>0.1541349506635776</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="Q6">
-        <v>0.7970783577767777</v>
+        <v>0.296036910316</v>
       </c>
       <c r="R6">
-        <v>7.173705219990999</v>
+        <v>2.664332192844</v>
       </c>
       <c r="S6">
-        <v>0.09332718290001379</v>
+        <v>0.03018916076398147</v>
       </c>
       <c r="T6">
-        <v>0.09332718290001382</v>
+        <v>0.03018916076398147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4997963333333333</v>
+        <v>0.259826</v>
       </c>
       <c r="H7">
-        <v>1.499389</v>
+        <v>0.779478</v>
       </c>
       <c r="I7">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J7">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,22 +871,22 @@
         <v>16.965439</v>
       </c>
       <c r="O7">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="P7">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="Q7">
-        <v>2.826421401863444</v>
+        <v>1.469354051204667</v>
       </c>
       <c r="R7">
-        <v>25.437792616771</v>
+        <v>13.224186460842</v>
       </c>
       <c r="S7">
-        <v>0.3309360297524166</v>
+        <v>0.1498413343919691</v>
       </c>
       <c r="T7">
-        <v>0.3309360297524166</v>
+        <v>0.1498413343919691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4997963333333333</v>
+        <v>0.259826</v>
       </c>
       <c r="H8">
-        <v>1.499389</v>
+        <v>0.779478</v>
       </c>
       <c r="I8">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J8">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.080867333333333</v>
+        <v>0.4872916666666667</v>
       </c>
       <c r="N8">
-        <v>9.242602</v>
+        <v>1.461875</v>
       </c>
       <c r="O8">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="P8">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="Q8">
-        <v>1.539806196686444</v>
+        <v>0.1266110445833333</v>
       </c>
       <c r="R8">
-        <v>13.858255770178</v>
+        <v>1.13949940125</v>
       </c>
       <c r="S8">
-        <v>0.180290649152182</v>
+        <v>0.01291150206689375</v>
       </c>
       <c r="T8">
-        <v>0.180290649152182</v>
+        <v>0.01291150206689375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4997963333333333</v>
+        <v>0.259826</v>
       </c>
       <c r="H9">
-        <v>1.499389</v>
+        <v>0.779478</v>
       </c>
       <c r="I9">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J9">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01599833333333333</v>
+        <v>0.08456133333333334</v>
       </c>
       <c r="N9">
-        <v>0.047995</v>
+        <v>0.253684</v>
       </c>
       <c r="O9">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="P9">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="Q9">
-        <v>0.007995908339444444</v>
+        <v>0.02197123299466667</v>
       </c>
       <c r="R9">
-        <v>0.07196317505499998</v>
+        <v>0.197741096952</v>
       </c>
       <c r="S9">
-        <v>0.0009362136015441296</v>
+        <v>0.002240575624001967</v>
       </c>
       <c r="T9">
-        <v>0.0009362136015441296</v>
+        <v>0.002240575624001967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.271593</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H10">
-        <v>0.814779</v>
+        <v>1.769488</v>
       </c>
       <c r="I10">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J10">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.594806333333333</v>
+        <v>1.139366</v>
       </c>
       <c r="N10">
-        <v>4.784419</v>
+        <v>3.418098</v>
       </c>
       <c r="O10">
-        <v>0.1541349506635775</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="P10">
-        <v>0.1541349506635776</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="Q10">
-        <v>0.433138236489</v>
+        <v>0.6720314882026667</v>
       </c>
       <c r="R10">
-        <v>3.898244128401</v>
+        <v>6.048283393824</v>
       </c>
       <c r="S10">
-        <v>0.05071467694913753</v>
+        <v>0.06853221989836279</v>
       </c>
       <c r="T10">
-        <v>0.05071467694913753</v>
+        <v>0.06853221989836281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.271593</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H11">
-        <v>0.814779</v>
+        <v>1.769488</v>
       </c>
       <c r="I11">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J11">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1119,22 @@
         <v>16.965439</v>
       </c>
       <c r="O11">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="P11">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="Q11">
-        <v>1.535898158109</v>
+        <v>3.335571191692444</v>
       </c>
       <c r="R11">
-        <v>13.823083422981</v>
+        <v>30.020140725232</v>
       </c>
       <c r="S11">
-        <v>0.1798330702610492</v>
+        <v>0.3401538505391771</v>
       </c>
       <c r="T11">
-        <v>0.1798330702610492</v>
+        <v>0.3401538505391771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.271593</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H12">
-        <v>0.814779</v>
+        <v>1.769488</v>
       </c>
       <c r="I12">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J12">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.080867333333333</v>
+        <v>0.4872916666666667</v>
       </c>
       <c r="N12">
-        <v>9.242602</v>
+        <v>1.461875</v>
       </c>
       <c r="O12">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="P12">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="Q12">
-        <v>0.8367420016620001</v>
+        <v>0.2874189188888889</v>
       </c>
       <c r="R12">
-        <v>7.530678014958</v>
+        <v>2.58677027</v>
       </c>
       <c r="S12">
-        <v>0.09797126351171426</v>
+        <v>0.02931031789138846</v>
       </c>
       <c r="T12">
-        <v>0.09797126351171424</v>
+        <v>0.02931031789138846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.271593</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H13">
-        <v>0.814779</v>
+        <v>1.769488</v>
       </c>
       <c r="I13">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J13">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01599833333333333</v>
+        <v>0.08456133333333334</v>
       </c>
       <c r="N13">
-        <v>0.047995</v>
+        <v>0.253684</v>
       </c>
       <c r="O13">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="P13">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="Q13">
-        <v>0.004345035345</v>
+        <v>0.04987675486577778</v>
       </c>
       <c r="R13">
-        <v>0.03910531810499999</v>
+        <v>0.448890793792</v>
       </c>
       <c r="S13">
-        <v>0.0005087453503077083</v>
+        <v>0.005086316329343473</v>
       </c>
       <c r="T13">
-        <v>0.0005087453503077082</v>
+        <v>0.005086316329343475</v>
       </c>
     </row>
   </sheetData>
